--- a/_zakres_modulu_wyp.xlsx
+++ b/_zakres_modulu_wyp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Majesty/Documents/Docs/Firma/Auxilium/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidpylak/Documents/Economic_Indicators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77171665-AF35-224E-A307-1EF4B325E9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF25D8D-67DA-E145-9524-24A69D9D8D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24080" windowHeight="13120" xr2:uid="{C2F22BE8-B2FC-B84B-BEB4-D4C7B8307E66}"/>
+    <workbookView xWindow="-33600" yWindow="11300" windowWidth="33600" windowHeight="20500" xr2:uid="{C2F22BE8-B2FC-B84B-BEB4-D4C7B8307E66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1103,9 +1103,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1143,7 +1143,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1249,7 +1249,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1401,8 +1401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D225F3E8-1832-AF47-B593-5FC25657FC91}">
   <dimension ref="A1:AC91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="11" zeroHeight="1" x14ac:dyDescent="0.15"/>

--- a/_zakres_modulu_wyp.xlsx
+++ b/_zakres_modulu_wyp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidpylak/Documents/Economic_Indicators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF25D8D-67DA-E145-9524-24A69D9D8D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA899F7C-39A4-6F4B-8FC5-AC3E71E4BF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="11300" windowWidth="33600" windowHeight="20500" xr2:uid="{C2F22BE8-B2FC-B84B-BEB4-D4C7B8307E66}"/>
+    <workbookView xWindow="-33620" yWindow="11300" windowWidth="33600" windowHeight="20500" xr2:uid="{C2F22BE8-B2FC-B84B-BEB4-D4C7B8307E66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1403,7 +1403,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M91" sqref="M91"/>
+      <selection pane="topRight" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="11" zeroHeight="1" x14ac:dyDescent="0.15"/>

--- a/_zakres_modulu_wyp.xlsx
+++ b/_zakres_modulu_wyp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidpylak/Documents/Economic_Indicators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA899F7C-39A4-6F4B-8FC5-AC3E71E4BF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F0B7D5-488E-114C-8BE9-4560993B5779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33620" yWindow="11300" windowWidth="33600" windowHeight="20500" xr2:uid="{C2F22BE8-B2FC-B84B-BEB4-D4C7B8307E66}"/>
+    <workbookView xWindow="13820" yWindow="8300" windowWidth="33600" windowHeight="20500" xr2:uid="{C2F22BE8-B2FC-B84B-BEB4-D4C7B8307E66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1403,7 +1403,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G86" sqref="G86"/>
+      <selection pane="topRight" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="11" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -4222,11 +4222,11 @@
         <v>89</v>
       </c>
       <c r="G88" s="80">
-        <f t="shared" ref="G88:H88" si="46">IF(G35=0,0,G13/G35)</f>
+        <f>IF(G35=0,0,G13/G35)</f>
         <v>8.3117546000000004</v>
       </c>
       <c r="H88" s="80">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="G88:H88" si="46">IF(H35=0,0,H13/H35)</f>
         <v>10.859921800000002</v>
       </c>
       <c r="I88" s="80">
@@ -4433,7 +4433,7 @@
       <formula>"słaba"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{528CD7B0-1F70-F64B-8C0A-4CC1EC8E39CC}">
       <formula1>"2012,2013,2014,2015,2016,2017,2018,2019,2020,2021,2022,2023,2024,2025"</formula1>
     </dataValidation>
